--- a/rp2350b-launchpad-PCB-BOM.xlsx
+++ b/rp2350b-launchpad-PCB-BOM.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="101">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -47,6 +47,7 @@
         <color rgb="FFAFABAB"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">（</t>
     </r>
@@ -66,11 +67,21 @@
         <color rgb="FFAFABAB"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
   </si>
   <si>
+    <t xml:space="preserve">100nF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22,C33,C36,C38,C40,C37,C32,C31,C35,C34,C39</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_0402_1005Metric</t>
+  </si>
+  <si>
     <t xml:space="preserve">22u</t>
   </si>
   <si>
@@ -80,13 +91,193 @@
     <t xml:space="preserve">C_0805_2012Metric</t>
   </si>
   <si>
+    <t xml:space="preserve">15pF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C7,C8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C9,C10,C14,C16,C18,C20,C19,C17,C15,C6</t>
+  </si>
+  <si>
     <t xml:space="preserve">1uF</t>
   </si>
   <si>
     <t xml:space="preserve">C12,C13,C11</t>
   </si>
   <si>
-    <t xml:space="preserve">C_0603_1608Metric</t>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LED_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PWR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BLUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GREEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4u7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L_1008_2520Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R27,R30,R32,R21,R29,R28,R31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_0402_1005Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R24,R25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1,R5,R9,R12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3,R4,R6,R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R10,R11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R13,R26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R15,R16,R14,R33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIPT-1188E</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XC9142B50C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOT-23-5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12MHz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Y1,Y2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crystal_SMD_TXC_7M-4Pin_3.2x2.5mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25Q32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WSON-8-1EP_6x5mm_P1.27mm_EP3.4x4.3mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RP2040</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">QFN-56-1EP_7x7mm_P0.4mm_EP3.2x3.2mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XC6220B33</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCP73831</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WS2812B-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U10,U11,U12,U13,U14,U15,U16,U9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KMR2-Switch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switch_SP3T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCM13SMTR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.7u</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23,C25</t>
   </si>
   <si>
     <t xml:space="preserve">4,7u</t>
@@ -95,73 +286,61 @@
     <t xml:space="preserve">C21</t>
   </si>
   <si>
-    <t xml:space="preserve">C_0402_1005Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100nF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22,C33,C36,C38,C40,C37,C32,C31,C35,C34,C39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.7u</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23,C25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15pF</t>
+    <t xml:space="preserve">5k1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R19,R8,R20,R7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APS6404L-3SQR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winbond_USON-8-1EP_3x2mm_P0.5mm_EP0.2x1.6mm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R22,R23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3u3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AOTA-B201610S3R3-101-T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C29,C24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C30,C28</t>
   </si>
   <si>
     <t xml:space="preserve">C27,C26</t>
   </si>
   <si>
-    <t xml:space="preserve">C29,C24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C30,C28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C7,C8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C9,C10,C14,C16,C18,C20,C19,C17,C15,C6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LED_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PWR ORANGE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BLUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GREEN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RED</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D5</t>
+    <t xml:space="preserve">USB-C-Socket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USB2,USB1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GT-USB-7010B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">S2</t>
   </si>
   <si>
     <t xml:space="preserve">LED</t>
@@ -170,171 +349,12 @@
     <t xml:space="preserve">D6</t>
   </si>
   <si>
-    <t xml:space="preserve">4u7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L1,L2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">L_1008_2520Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R1,R5,R9,R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_0603_1608Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">27R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R10,R11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R13,R26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">470R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R15,R16,R14,R33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">33R</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R_0402_1005Metric</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R19,R8,R20,R7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R22,R23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R24,R25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R27,R30,R32,R21,R29,R28,R31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3,R4,R6,R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DIPT-1188E</t>
-  </si>
-  <si>
-    <t xml:space="preserve">S2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switch_SP3T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCM13SMTR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RESET</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BOOT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SW3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KMR2-Switch</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MCP73831</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOT-23-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WS2812B-2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U10,U11,U12,U13,U14,U15,U16,U9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XC9142B50C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">XC6220B33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">25Q32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WSON-8-1EP_6x5mm_P1.27mm_EP3.4x4.3mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RP2040</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">QFN-56-1EP_7x7mm_P0.4mm_EP3.2x3.2mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">25Q64</t>
   </si>
   <si>
     <t xml:space="preserve">U6</t>
   </si>
   <si>
-    <t xml:space="preserve">APS6404L-3SQR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winbond_USON-8-1EP_3x2mm_P0.5mm_EP0.2x1.6mm</t>
-  </si>
-  <si>
     <t xml:space="preserve">RP2350_80QFN</t>
   </si>
   <si>
@@ -342,24 +362,6 @@
   </si>
   <si>
     <t xml:space="preserve">QFN-80-1EP_10x10mm_P0.4mm_EP3.4x3.4mm_ThermalVias</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB-C-Socket</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB2,USB1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USB-C-GCT-USB4105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12MHz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Y1,Y2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crystal_SMD_TXC_7M-4Pin_3.2x2.5mm</t>
   </si>
 </sst>
 </file>
@@ -411,6 +413,7 @@
       <color rgb="FFAFABAB"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -462,7 +465,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -477,6 +480,10 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -556,13 +563,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D46"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="42.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.36"/>
@@ -586,7 +593,7 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -597,7 +604,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="0" t="s">
@@ -608,7 +615,7 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="0" t="s">
@@ -619,453 +626,464 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
+      <c r="B7" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
+      <c r="A8" s="4" t="s">
+        <v>19</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>20</v>
+      <c r="A9" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
+      <c r="A10" s="4" t="s">
+        <v>23</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
+      <c r="A11" s="4" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>24</v>
+      <c r="A12" s="4" t="s">
+        <v>27</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="4" t="n">
         <v>27</v>
       </c>
-      <c r="B13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="1" t="s">
+      <c r="B17" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="B18" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="1" t="s">
-        <v>40</v>
+      <c r="A19" s="4" t="n">
+        <v>470</v>
       </c>
       <c r="B19" s="0" t="s">
         <v>41</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="0" t="s">
+      <c r="C20" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="4" t="s">
         <v>45</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>46</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
-        <v>43</v>
+      <c r="A26" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
-        <v>45</v>
+      <c r="A27" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
-        <v>40</v>
+      <c r="A28" s="4" t="s">
+        <v>63</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="1" t="s">
-        <v>59</v>
+      <c r="A29" s="4" t="s">
+        <v>65</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="1" t="s">
-        <v>61</v>
+      <c r="A30" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="1" t="s">
-        <v>63</v>
+      <c r="A31" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="1" t="s">
-        <v>64</v>
+      <c r="A32" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="1" t="s">
-        <v>67</v>
+      <c r="A33" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="1" t="s">
-        <v>69</v>
+      <c r="A34" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="C34" s="0" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="4" t="n">
+        <v>27</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="4" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" s="0" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="1" t="s">
-        <v>77</v>
-      </c>
       <c r="B37" s="0" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="1" t="s">
-        <v>79</v>
+      <c r="A38" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="1" t="s">
-        <v>81</v>
+      <c r="A39" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>83</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="1" t="s">
-        <v>84</v>
+      <c r="A40" s="4" t="s">
+        <v>88</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="1" t="s">
-        <v>87</v>
+      <c r="A41" s="4" t="s">
+        <v>91</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="1" t="s">
-        <v>89</v>
+      <c r="A42" s="4" t="n">
+        <v>33</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="1" t="s">
-        <v>92</v>
+      <c r="A43" s="4" t="s">
+        <v>93</v>
       </c>
       <c r="B43" s="0" t="s">
         <v>93</v>
       </c>
       <c r="C43" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="4" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="1" t="s">
+      <c r="B44" s="0" t="s">
         <v>95</v>
       </c>
-      <c r="B44" s="0" t="s">
+      <c r="C44" s="0" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C44" s="0" t="s">
+      <c r="B45" s="0" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="1" t="s">
+      <c r="C45" s="0" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B45" s="0" t="s">
+      <c r="B46" s="0" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="0" t="s">
+      <c r="C46" s="0" t="s">
         <v>100</v>
       </c>
     </row>

--- a/rp2350b-launchpad-PCB-BOM.xlsx
+++ b/rp2350b-launchpad-PCB-BOM.xlsx
@@ -88,7 +88,7 @@
     <t xml:space="preserve">C23733</t>
   </si>
   <si>
-    <t xml:space="preserve">C22,C31,C32,C33,C34,C35,C36,C37,C38,C39,C40,C28,C30</t>
+    <t xml:space="preserve">C22,C28,C30,C31,C32,C33,C34,C35,C36,C37,C38,C39,C40</t>
   </si>
   <si>
     <t xml:space="preserve">C1525</t>
@@ -166,43 +166,43 @@
     <t xml:space="preserve">C42411119</t>
   </si>
   <si>
+    <t xml:space="preserve">2k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R1,R2,R5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor_SMD:R_0603_1608Metric</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C22975</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R3,R4,R6,R17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C25803</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5k1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R7,R8,R19,R20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C23186</t>
+  </si>
+  <si>
     <t xml:space="preserve">1k</t>
   </si>
   <si>
-    <t xml:space="preserve">R1,R5,R9,R12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resistor_SMD:R_0603_1608Metric</t>
+    <t xml:space="preserve">R9,R12</t>
   </si>
   <si>
     <t xml:space="preserve">C21190</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C22975</t>
-  </si>
-  <si>
-    <t xml:space="preserve">100k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R3,R4,R6,R17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C25803</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5k1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R7,R8,R19,R20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C23186</t>
   </si>
   <si>
     <t xml:space="preserve">R10,R11</t>
@@ -512,7 +512,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -541,10 +541,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -565,12 +561,12 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="49.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="20.01"/>
@@ -601,7 +597,7 @@
       <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
     </row>
@@ -615,7 +611,7 @@
       <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="0" t="s">
         <v>11</v>
       </c>
     </row>
@@ -629,7 +625,7 @@
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
     </row>
@@ -643,7 +639,7 @@
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="0" t="s">
         <v>17</v>
       </c>
     </row>
@@ -657,7 +653,7 @@
       <c r="C6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="D6" s="0" t="s">
         <v>21</v>
       </c>
     </row>
@@ -671,7 +667,7 @@
       <c r="C7" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="0" t="s">
         <v>23</v>
       </c>
     </row>
@@ -685,7 +681,7 @@
       <c r="C8" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="0" t="s">
         <v>25</v>
       </c>
     </row>
@@ -699,7 +695,7 @@
       <c r="C9" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="D9" s="0" t="s">
         <v>27</v>
       </c>
     </row>
@@ -713,7 +709,7 @@
       <c r="C10" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="D10" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -727,7 +723,7 @@
       <c r="C11" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="0" t="s">
         <v>31</v>
       </c>
     </row>
@@ -741,7 +737,7 @@
       <c r="C12" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="0" t="s">
         <v>36</v>
       </c>
     </row>
@@ -755,7 +751,7 @@
       <c r="C13" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="0" t="s">
         <v>39</v>
       </c>
     </row>
@@ -769,7 +765,7 @@
       <c r="C14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D14" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -783,7 +779,7 @@
       <c r="C15" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="0" t="s">
         <v>42</v>
       </c>
     </row>
@@ -797,7 +793,7 @@
       <c r="C16" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="0" t="s">
         <v>47</v>
       </c>
     </row>
@@ -811,7 +807,7 @@
       <c r="C17" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="0" t="s">
         <v>51</v>
       </c>
     </row>
@@ -825,7 +821,7 @@
       <c r="C18" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D18" s="7" t="s">
+      <c r="D18" s="0" t="s">
         <v>54</v>
       </c>
     </row>
@@ -839,7 +835,7 @@
       <c r="C19" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="7" t="s">
+      <c r="D19" s="0" t="s">
         <v>57</v>
       </c>
     </row>
@@ -853,7 +849,7 @@
       <c r="C20" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D20" s="7" t="s">
+      <c r="D20" s="0" t="s">
         <v>60</v>
       </c>
     </row>
@@ -867,7 +863,7 @@
       <c r="C21" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D21" s="0" t="s">
         <v>62</v>
       </c>
     </row>
@@ -881,7 +877,7 @@
       <c r="C22" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="7" t="s">
+      <c r="D22" s="0" t="s">
         <v>65</v>
       </c>
     </row>
@@ -895,7 +891,7 @@
       <c r="C23" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="D23" s="0" t="s">
         <v>67</v>
       </c>
     </row>
@@ -909,13 +905,13 @@
       <c r="C24" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="D24" s="7" t="s">
+      <c r="D24" s="0" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>71</v>
@@ -923,7 +919,7 @@
       <c r="C25" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D25" s="0" t="s">
         <v>72</v>
       </c>
     </row>
@@ -937,7 +933,7 @@
       <c r="C26" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="7" t="s">
+      <c r="D26" s="0" t="s">
         <v>74</v>
       </c>
     </row>
@@ -951,7 +947,7 @@
       <c r="C27" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D27" s="0" t="s">
         <v>76</v>
       </c>
     </row>
@@ -965,7 +961,7 @@
       <c r="C28" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D28" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -979,7 +975,7 @@
       <c r="C29" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D29" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -993,7 +989,7 @@
       <c r="C30" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D30" s="0" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1007,7 +1003,7 @@
       <c r="C31" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D31" s="0" t="s">
         <v>79</v>
       </c>
     </row>
@@ -1021,7 +1017,7 @@
       <c r="C32" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="7" t="s">
+      <c r="D32" s="0" t="s">
         <v>90</v>
       </c>
     </row>
@@ -1035,7 +1031,7 @@
       <c r="C33" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D33" s="7" t="s">
+      <c r="D33" s="0" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1049,7 +1045,7 @@
       <c r="C34" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D34" s="7" t="s">
+      <c r="D34" s="0" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1063,7 +1059,7 @@
       <c r="C35" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D35" s="0" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1077,7 +1073,7 @@
       <c r="C36" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D36" s="0" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1091,7 +1087,7 @@
       <c r="C37" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D37" s="0" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1105,7 +1101,7 @@
       <c r="C38" s="0" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="7" t="s">
+      <c r="D38" s="0" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1119,7 +1115,7 @@
       <c r="C39" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D39" s="7" t="s">
+      <c r="D39" s="0" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1133,7 +1129,7 @@
       <c r="C40" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="D40" s="7" t="s">
+      <c r="D40" s="0" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1147,7 +1143,7 @@
       <c r="C41" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="0" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1161,7 +1157,7 @@
       <c r="C42" s="0" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="7" t="s">
+      <c r="D42" s="0" t="s">
         <v>127</v>
       </c>
     </row>
@@ -1175,7 +1171,7 @@
       <c r="C43" s="0" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="7" t="s">
+      <c r="D43" s="0" t="s">
         <v>131</v>
       </c>
     </row>

--- a/rp2350b-launchpad-PCB-BOM.xlsx
+++ b/rp2350b-launchpad-PCB-BOM.xlsx
@@ -115,7 +115,7 @@
     <t xml:space="preserve">LED_SMD:LED_0603_1608Metric</t>
   </si>
   <si>
-    <t xml:space="preserve">C2290</t>
+    <t xml:space="preserve">C84269</t>
   </si>
   <si>
     <t xml:space="preserve">PWR</t>
@@ -561,10 +561,10 @@
   <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:D43"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="22.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="49.36"/>
